--- a/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
+++ b/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_0\src\inputs\plan_obiegow_taboru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_1\src\inputs\plan_obiegow_taboru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409349A-F6E1-49ED-AC43-BF7872D13B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132FD15-13A7-4125-A9B0-005482E88658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="16">
   <si>
     <t>nr_obiegu</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>(1-6)</t>
+  </si>
+  <si>
+    <t>H-</t>
+  </si>
+  <si>
+    <t>(2-5)</t>
+  </si>
+  <si>
+    <t>(1-4)</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -369,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +436,6 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -432,9 +450,6 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -449,9 +464,6 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -466,9 +478,6 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -483,9 +492,6 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -499,9 +505,6 @@
       </c>
       <c r="D7" t="s">
         <v>6</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,9 +520,6 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -533,9 +533,6 @@
       </c>
       <c r="D9" t="s">
         <v>7</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,9 +548,6 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -568,9 +562,6 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -580,13 +571,10 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>5398</v>
+        <v>4333</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -597,13 +585,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6210</v>
+        <v>3568</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,13 +599,10 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>5597</v>
+        <v>4514</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,13 +613,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>6412</v>
+        <v>4485</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,16 +627,13 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>5493</v>
+        <v>3658</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -665,13 +641,4658 @@
         <v>2</v>
       </c>
       <c r="C17">
+        <v>4498</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>11639</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>11555</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4519</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>6337</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>5593</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>6396</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>5479</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>15954</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>5405</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>6220</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>5464</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>6326</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>6282</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>4509</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4264</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4263</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>3610</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4276</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>3631</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>3643</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3573</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>13718</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3384</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>4661</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>6295</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>6319</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>5547</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>5552</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>11521</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>11533</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>4677</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>4662</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>5450</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>6299</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>4492</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>4308</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>5398</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>6210</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>5597</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>6412</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>5493</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
         <v>6385</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>5951</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>6185</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>5411</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>6251</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>5498</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>5646</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>6418</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>6294</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>6320</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>5592</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>6395</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>5458</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>6326</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>11515</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>11531</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>11634</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>11553</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>5423</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>6273</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>5498</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>6294</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>11847</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>11813</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>11852</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>11816</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>11601</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>11812</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>11883</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>11836</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>11612</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>11909</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>11610</v>
+      </c>
+      <c r="D91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>11612</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>4659</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>4668</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>11915</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>11916</v>
+      </c>
+      <c r="D96">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>11601</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>11812</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>11866</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>11823</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>11809</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>11609</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>11848</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104">
+        <v>11814</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <v>11684</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>11608</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107">
+        <v>11674</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>15</v>
+      </c>
+      <c r="C108">
+        <v>12450</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>3385</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>4648</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>16</v>
+      </c>
+      <c r="C111">
+        <v>4666</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>16</v>
+      </c>
+      <c r="C112">
+        <v>4227</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113">
+        <v>3382</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>4649</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>16</v>
+      </c>
+      <c r="C115">
+        <v>4667</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>4240</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>3463</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>11611</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>11850</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>17</v>
+      </c>
+      <c r="C120">
+        <v>11609</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>11848</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>17</v>
+      </c>
+      <c r="C122">
+        <v>11815</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>17</v>
+      </c>
+      <c r="C123">
+        <v>13720</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>18</v>
+      </c>
+      <c r="C124">
+        <v>3381</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>4238</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>18</v>
+      </c>
+      <c r="C126">
+        <v>3383</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>13719</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>3386</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>11685</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>19</v>
+      </c>
+      <c r="C130">
+        <v>11894</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>19</v>
+      </c>
+      <c r="C131">
+        <v>11828</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132">
+        <v>5391</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>20</v>
+      </c>
+      <c r="C133">
+        <v>6185</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <v>4660</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>20</v>
+      </c>
+      <c r="C135">
+        <v>4670</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>20</v>
+      </c>
+      <c r="C136">
+        <v>5602</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>20</v>
+      </c>
+      <c r="C137">
+        <v>6417</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>6264</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>21</v>
+      </c>
+      <c r="C139">
+        <v>6329</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>5533</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>21</v>
+      </c>
+      <c r="C141">
+        <v>5538</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>21</v>
+      </c>
+      <c r="C142">
+        <v>5411</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>21</v>
+      </c>
+      <c r="C143">
+        <v>6267</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>21</v>
+      </c>
+      <c r="C144">
+        <v>5432</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>21</v>
+      </c>
+      <c r="C145">
+        <v>6273</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>21</v>
+      </c>
+      <c r="C146">
+        <v>6265</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>22</v>
+      </c>
+      <c r="C147">
+        <v>5358</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>22</v>
+      </c>
+      <c r="C148">
+        <v>6175</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>22</v>
+      </c>
+      <c r="C149">
+        <v>5450</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>22</v>
+      </c>
+      <c r="C150">
+        <v>6299</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>22</v>
+      </c>
+      <c r="C151">
+        <v>6266</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>22</v>
+      </c>
+      <c r="C152">
+        <v>5358</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>6175</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>22</v>
+      </c>
+      <c r="C154">
+        <v>5593</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>22</v>
+      </c>
+      <c r="C155">
+        <v>6396</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>22</v>
+      </c>
+      <c r="C156">
+        <v>5624</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>22</v>
+      </c>
+      <c r="C157">
+        <v>15954</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>50</v>
+      </c>
+      <c r="C158">
+        <v>12138</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>50</v>
+      </c>
+      <c r="C159">
+        <v>11548</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>50</v>
+      </c>
+      <c r="C160">
+        <v>11632</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>50</v>
+      </c>
+      <c r="C161">
+        <v>11553</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>50</v>
+      </c>
+      <c r="C162">
+        <v>11647</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>50</v>
+      </c>
+      <c r="C163">
+        <v>12150</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>51</v>
+      </c>
+      <c r="C164">
+        <v>11541</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>51</v>
+      </c>
+      <c r="C165">
+        <v>11584</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>51</v>
+      </c>
+      <c r="C166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>51</v>
+      </c>
+      <c r="C167">
+        <v>12335</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>51</v>
+      </c>
+      <c r="C168">
+        <v>11544</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>51</v>
+      </c>
+      <c r="C169">
+        <v>11643</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>51</v>
+      </c>
+      <c r="C170">
+        <v>11557</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>51</v>
+      </c>
+      <c r="C171">
+        <v>11573</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>52</v>
+      </c>
+      <c r="C172">
+        <v>11542</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>52</v>
+      </c>
+      <c r="C173">
+        <v>11517</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>52</v>
+      </c>
+      <c r="C174">
+        <v>12299</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>52</v>
+      </c>
+      <c r="C175">
+        <v>12303</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>52</v>
+      </c>
+      <c r="C176">
+        <v>11534</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>52</v>
+      </c>
+      <c r="C177">
+        <v>11563</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>53</v>
+      </c>
+      <c r="C178">
+        <v>12137</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>53</v>
+      </c>
+      <c r="C179">
+        <v>11547</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>53</v>
+      </c>
+      <c r="C180">
+        <v>11520</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>53</v>
+      </c>
+      <c r="C181">
+        <v>11532</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>53</v>
+      </c>
+      <c r="C182">
+        <v>11568</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>53</v>
+      </c>
+      <c r="C183">
+        <v>12091</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>54</v>
+      </c>
+      <c r="C184">
+        <v>13813</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>54</v>
+      </c>
+      <c r="C185">
+        <v>11526</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>54</v>
+      </c>
+      <c r="C186">
+        <v>11636</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>54</v>
+      </c>
+      <c r="C187">
+        <v>11555</v>
+      </c>
+      <c r="D187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>54</v>
+      </c>
+      <c r="C188">
+        <v>11565</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>55</v>
+      </c>
+      <c r="C189">
+        <v>11534</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>55</v>
+      </c>
+      <c r="C190">
+        <v>11647</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>55</v>
+      </c>
+      <c r="C191">
+        <v>12159</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>56</v>
+      </c>
+      <c r="C192">
+        <v>12137</v>
+      </c>
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>56</v>
+      </c>
+      <c r="C193">
+        <v>11547</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>56</v>
+      </c>
+      <c r="C194">
+        <v>11520</v>
+      </c>
+      <c r="D194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>57</v>
+      </c>
+      <c r="C195">
+        <v>12139</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>57</v>
+      </c>
+      <c r="C196">
+        <v>11549</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>57</v>
+      </c>
+      <c r="C197">
+        <v>11545</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>58</v>
+      </c>
+      <c r="C198">
+        <v>11528</v>
+      </c>
+      <c r="D198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>58</v>
+      </c>
+      <c r="C199">
+        <v>11629</v>
+      </c>
+      <c r="D199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>58</v>
+      </c>
+      <c r="C200">
+        <v>11551</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>58</v>
+      </c>
+      <c r="C201">
+        <v>11643</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>58</v>
+      </c>
+      <c r="C202">
+        <v>11557</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>58</v>
+      </c>
+      <c r="C203">
+        <v>11573</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>59</v>
+      </c>
+      <c r="C204">
+        <v>11543</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>59</v>
+      </c>
+      <c r="C205">
+        <v>11565</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>60</v>
+      </c>
+      <c r="C206">
+        <v>12136</v>
+      </c>
+      <c r="D206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>60</v>
+      </c>
+      <c r="C207">
+        <v>11559</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>60</v>
+      </c>
+      <c r="C208">
+        <v>6220</v>
+      </c>
+      <c r="D208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>60</v>
+      </c>
+      <c r="C209">
+        <v>11540</v>
+      </c>
+      <c r="D209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>61</v>
+      </c>
+      <c r="C210">
+        <v>11528</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>61</v>
+      </c>
+      <c r="C211">
+        <v>11521</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>61</v>
+      </c>
+      <c r="C212">
+        <v>11533</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>61</v>
+      </c>
+      <c r="C213">
+        <v>11570</v>
+      </c>
+      <c r="D213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>61</v>
+      </c>
+      <c r="C214">
+        <v>12305</v>
+      </c>
+      <c r="D214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>62</v>
+      </c>
+      <c r="C215">
+        <v>11527</v>
+      </c>
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>62</v>
+      </c>
+      <c r="C216">
+        <v>11567</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>62</v>
+      </c>
+      <c r="C217">
+        <v>12109</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>62</v>
+      </c>
+      <c r="C218">
+        <v>12086</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>62</v>
+      </c>
+      <c r="C219">
+        <v>12111</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>62</v>
+      </c>
+      <c r="C220">
+        <v>12088</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>62</v>
+      </c>
+      <c r="C221">
+        <v>12113</v>
+      </c>
+      <c r="D221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>62</v>
+      </c>
+      <c r="C222">
+        <v>12092</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>63</v>
+      </c>
+      <c r="C223">
+        <v>12031</v>
+      </c>
+      <c r="D223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>63</v>
+      </c>
+      <c r="C224">
+        <v>11855</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>63</v>
+      </c>
+      <c r="C225">
+        <v>12035</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>63</v>
+      </c>
+      <c r="C226">
+        <v>11858</v>
+      </c>
+      <c r="D226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>63</v>
+      </c>
+      <c r="C227">
+        <v>12141</v>
+      </c>
+      <c r="D227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>63</v>
+      </c>
+      <c r="C228">
+        <v>12157</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>64</v>
+      </c>
+      <c r="C229">
+        <v>12300</v>
+      </c>
+      <c r="D229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>64</v>
+      </c>
+      <c r="C230">
+        <v>11530</v>
+      </c>
+      <c r="D230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>64</v>
+      </c>
+      <c r="C231">
+        <v>11505</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>64</v>
+      </c>
+      <c r="C232">
+        <v>11505</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>65</v>
+      </c>
+      <c r="C233">
+        <v>12309</v>
+      </c>
+      <c r="D233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>65</v>
+      </c>
+      <c r="C234">
+        <v>12332</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>65</v>
+      </c>
+      <c r="C235">
+        <v>11561</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>65</v>
+      </c>
+      <c r="C236">
+        <v>1522470</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>65</v>
+      </c>
+      <c r="C237">
+        <v>11655</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>66</v>
+      </c>
+      <c r="C238">
+        <v>11523</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>66</v>
+      </c>
+      <c r="C239">
+        <v>11522</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>66</v>
+      </c>
+      <c r="C240">
+        <v>11535</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>66</v>
+      </c>
+      <c r="C241">
+        <v>1249775</v>
+      </c>
+      <c r="D241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>66</v>
+      </c>
+      <c r="C242">
+        <v>11653</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>66</v>
+      </c>
+      <c r="C243">
+        <v>11524</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>67</v>
+      </c>
+      <c r="C244">
+        <v>12302</v>
+      </c>
+      <c r="D244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>67</v>
+      </c>
+      <c r="C245">
+        <v>12139</v>
+      </c>
+      <c r="D245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>67</v>
+      </c>
+      <c r="C246">
+        <v>11549</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>67</v>
+      </c>
+      <c r="C247">
+        <v>11652</v>
+      </c>
+      <c r="D247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>67</v>
+      </c>
+      <c r="C248">
+        <v>11625</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>67</v>
+      </c>
+      <c r="C249">
+        <v>11654</v>
+      </c>
+      <c r="D249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>68</v>
+      </c>
+      <c r="C250">
+        <v>11504</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>68</v>
+      </c>
+      <c r="C251">
+        <v>11504</v>
+      </c>
+      <c r="D251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>68</v>
+      </c>
+      <c r="C252">
+        <v>12313</v>
+      </c>
+      <c r="D252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>68</v>
+      </c>
+      <c r="C253">
+        <v>12336</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>68</v>
+      </c>
+      <c r="C254" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>68</v>
+      </c>
+      <c r="C255">
+        <v>12182</v>
+      </c>
+      <c r="D255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>68</v>
+      </c>
+      <c r="C256" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>68</v>
+      </c>
+      <c r="C257">
+        <v>12182</v>
+      </c>
+      <c r="D257">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>69</v>
+      </c>
+      <c r="C258">
+        <v>11560</v>
+      </c>
+      <c r="D258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>69</v>
+      </c>
+      <c r="C259">
+        <v>11560</v>
+      </c>
+      <c r="D259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>69</v>
+      </c>
+      <c r="C260">
+        <v>11519</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>69</v>
+      </c>
+      <c r="C261">
+        <v>12036</v>
+      </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>69</v>
+      </c>
+      <c r="C262">
+        <v>12089</v>
+      </c>
+      <c r="D262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>69</v>
+      </c>
+      <c r="C263">
+        <v>12114</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>69</v>
+      </c>
+      <c r="C264">
+        <v>11862</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>70</v>
+      </c>
+      <c r="C265">
+        <v>3551</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>70</v>
+      </c>
+      <c r="C266">
+        <v>4270</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>71</v>
+      </c>
+      <c r="C267">
+        <v>8262</v>
+      </c>
+      <c r="D267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>71</v>
+      </c>
+      <c r="C268">
+        <v>13277</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>71</v>
+      </c>
+      <c r="C269">
+        <v>13221</v>
+      </c>
+      <c r="D269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>71</v>
+      </c>
+      <c r="C270">
+        <v>8212</v>
+      </c>
+      <c r="D270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>71</v>
+      </c>
+      <c r="C271">
+        <v>13222</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>71</v>
+      </c>
+      <c r="C272">
+        <v>8220</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>72</v>
+      </c>
+      <c r="C273">
+        <v>8305</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>72</v>
+      </c>
+      <c r="C274">
+        <v>3615</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>72</v>
+      </c>
+      <c r="C275">
+        <v>4273</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>72</v>
+      </c>
+      <c r="C276">
+        <v>3607</v>
+      </c>
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>72</v>
+      </c>
+      <c r="C277">
+        <v>4311</v>
+      </c>
+      <c r="D277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>72</v>
+      </c>
+      <c r="C278">
+        <v>8220</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>72</v>
+      </c>
+      <c r="C279">
+        <v>4493</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>73</v>
+      </c>
+      <c r="C280">
+        <v>3556</v>
+      </c>
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>73</v>
+      </c>
+      <c r="C281">
+        <v>4267</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>73</v>
+      </c>
+      <c r="C282">
+        <v>3612</v>
+      </c>
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>73</v>
+      </c>
+      <c r="C283">
+        <v>4346</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>73</v>
+      </c>
+      <c r="C284">
+        <v>4294</v>
+      </c>
+      <c r="D284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>73</v>
+      </c>
+      <c r="C285">
+        <v>8212</v>
+      </c>
+      <c r="D285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>75</v>
+      </c>
+      <c r="C286">
+        <v>7057</v>
+      </c>
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>75</v>
+      </c>
+      <c r="C287">
+        <v>4838</v>
+      </c>
+      <c r="D287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>75</v>
+      </c>
+      <c r="C288">
+        <v>6233</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>75</v>
+      </c>
+      <c r="C289">
+        <v>3681</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>75</v>
+      </c>
+      <c r="C290">
+        <v>4250</v>
+      </c>
+      <c r="D290" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>75</v>
+      </c>
+      <c r="C291">
+        <v>3683</v>
+      </c>
+      <c r="D291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>75</v>
+      </c>
+      <c r="C292">
+        <v>4251</v>
+      </c>
+      <c r="D292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>75</v>
+      </c>
+      <c r="C293">
+        <v>3685</v>
+      </c>
+      <c r="D293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>75</v>
+      </c>
+      <c r="C294">
+        <v>4252</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>75</v>
+      </c>
+      <c r="C295">
+        <v>3673</v>
+      </c>
+      <c r="D295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>75</v>
+      </c>
+      <c r="C296">
+        <v>4248</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>75</v>
+      </c>
+      <c r="C297">
+        <v>3674</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>75</v>
+      </c>
+      <c r="C298">
+        <v>4249</v>
+      </c>
+      <c r="D298" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>75</v>
+      </c>
+      <c r="C299">
+        <v>3678</v>
+      </c>
+      <c r="D299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>76</v>
+      </c>
+      <c r="C300">
+        <v>6493</v>
+      </c>
+      <c r="D300" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>76</v>
+      </c>
+      <c r="C301">
+        <v>5332</v>
+      </c>
+      <c r="D301" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>76</v>
+      </c>
+      <c r="C302">
+        <v>5180</v>
+      </c>
+      <c r="D302" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>76</v>
+      </c>
+      <c r="C303">
+        <v>13847</v>
+      </c>
+      <c r="D303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>76</v>
+      </c>
+      <c r="C304">
+        <v>6619</v>
+      </c>
+      <c r="D304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>76</v>
+      </c>
+      <c r="C305">
+        <v>4866</v>
+      </c>
+      <c r="D305" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>77</v>
+      </c>
+      <c r="C306">
+        <v>6408</v>
+      </c>
+      <c r="D306" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>77</v>
+      </c>
+      <c r="C307">
+        <v>5178</v>
+      </c>
+      <c r="D307" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>77</v>
+      </c>
+      <c r="C308">
+        <v>4841</v>
+      </c>
+      <c r="D308" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>77</v>
+      </c>
+      <c r="C309">
+        <v>6497</v>
+      </c>
+      <c r="D309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>77</v>
+      </c>
+      <c r="C310">
+        <v>5333</v>
+      </c>
+      <c r="D310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>77</v>
+      </c>
+      <c r="C311">
+        <v>5181</v>
+      </c>
+      <c r="D311" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>77</v>
+      </c>
+      <c r="C312">
+        <v>4858</v>
+      </c>
+      <c r="D312" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>78</v>
+      </c>
+      <c r="C313">
+        <v>7006</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>78</v>
+      </c>
+      <c r="C314">
+        <v>7057</v>
+      </c>
+      <c r="D314" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>78</v>
+      </c>
+      <c r="C315">
+        <v>4831</v>
+      </c>
+      <c r="D315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>78</v>
+      </c>
+      <c r="C316">
+        <v>6491</v>
+      </c>
+      <c r="D316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>78</v>
+      </c>
+      <c r="C317">
+        <v>5331</v>
+      </c>
+      <c r="D317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>78</v>
+      </c>
+      <c r="C318">
+        <v>5179</v>
+      </c>
+      <c r="D318" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>78</v>
+      </c>
+      <c r="C319">
+        <v>66606</v>
+      </c>
+      <c r="D319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>78</v>
+      </c>
+      <c r="C320">
+        <v>6585</v>
+      </c>
+      <c r="D320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>78</v>
+      </c>
+      <c r="C321">
+        <v>4860</v>
+      </c>
+      <c r="D321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>78</v>
+      </c>
+      <c r="C322">
+        <v>5182</v>
+      </c>
+      <c r="D322" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>78</v>
+      </c>
+      <c r="C323">
+        <v>4863</v>
+      </c>
+      <c r="D323" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>79</v>
+      </c>
+      <c r="C324">
+        <v>6462</v>
+      </c>
+      <c r="D324" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>79</v>
+      </c>
+      <c r="C325">
+        <v>4779</v>
+      </c>
+      <c r="D325" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>80</v>
+      </c>
+      <c r="C326">
+        <v>6558</v>
+      </c>
+      <c r="D326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>80</v>
+      </c>
+      <c r="C327">
+        <v>4780</v>
+      </c>
+      <c r="D327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>81</v>
+      </c>
+      <c r="C328">
+        <v>12585</v>
+      </c>
+      <c r="D328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>81</v>
+      </c>
+      <c r="C329">
+        <v>12411</v>
+      </c>
+      <c r="D329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>81</v>
+      </c>
+      <c r="C330">
+        <v>12390</v>
+      </c>
+      <c r="D330" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>81</v>
+      </c>
+      <c r="C331">
+        <v>12415</v>
+      </c>
+      <c r="D331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>81</v>
+      </c>
+      <c r="C332">
+        <v>11539</v>
+      </c>
+      <c r="D332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>81</v>
+      </c>
+      <c r="C333">
+        <v>11620</v>
+      </c>
+      <c r="D333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>82</v>
+      </c>
+      <c r="C334">
+        <v>12601</v>
+      </c>
+      <c r="D334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>82</v>
+      </c>
+      <c r="C335">
+        <v>12626</v>
+      </c>
+      <c r="D335" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>82</v>
+      </c>
+      <c r="C336">
+        <v>11614</v>
+      </c>
+      <c r="D336" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>82</v>
+      </c>
+      <c r="C337">
+        <v>12621</v>
+      </c>
+      <c r="D337" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>83</v>
+      </c>
+      <c r="C338">
+        <v>11566</v>
+      </c>
+      <c r="D338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>83</v>
+      </c>
+      <c r="C339">
+        <v>11512</v>
+      </c>
+      <c r="D339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>83</v>
+      </c>
+      <c r="C340">
+        <v>11863</v>
+      </c>
+      <c r="D340" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>84</v>
+      </c>
+      <c r="C341">
+        <v>12031</v>
+      </c>
+      <c r="D341" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>84</v>
+      </c>
+      <c r="C342">
+        <v>11564</v>
+      </c>
+      <c r="D342" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>84</v>
+      </c>
+      <c r="C343">
+        <v>11510</v>
+      </c>
+      <c r="D343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>85</v>
+      </c>
+      <c r="C344">
+        <v>11537</v>
+      </c>
+      <c r="D344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>85</v>
+      </c>
+      <c r="C345">
+        <v>11602</v>
+      </c>
+      <c r="D345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>85</v>
+      </c>
+      <c r="C346">
+        <v>11538</v>
+      </c>
+      <c r="D346" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>85</v>
+      </c>
+      <c r="C347">
+        <v>11618</v>
+      </c>
+      <c r="D347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>85</v>
+      </c>
+      <c r="C348">
+        <v>11539</v>
+      </c>
+      <c r="D348" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>85</v>
+      </c>
+      <c r="C349">
+        <v>11620</v>
+      </c>
+      <c r="D349" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
+++ b/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_1\src\inputs\plan_obiegow_taboru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C351E3FB-1B39-4ADA-BDAB-85CF6A434765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301E63F7-9256-479C-85AC-32A38F8495D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="16">
   <si>
     <t>nr_obiegu</t>
   </si>
@@ -54,22 +65,25 @@
     <t>H</t>
   </si>
   <si>
-    <t>C-</t>
+    <t>B</t>
   </si>
   <si>
-    <t>(1-6)</t>
+    <t>[1-6]</t>
   </si>
   <si>
-    <t>H-</t>
+    <t>[7]</t>
   </si>
   <si>
-    <t>(2-5)</t>
+    <t>[1]</t>
   </si>
   <si>
-    <t>(1-4)</t>
+    <t>[2-5]</t>
   </si>
   <si>
-    <t>B</t>
+    <t>[1-4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
   </si>
 </sst>
 </file>
@@ -105,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -390,7 +405,7 @@
   <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +530,7 @@
         <v>11639</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,7 +544,7 @@
         <v>11555</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,7 +1104,7 @@
         <v>6264</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,7 +1300,7 @@
         <v>5358</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1314,7 @@
         <v>6175</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,8 +1565,8 @@
       <c r="C82">
         <v>5450</v>
       </c>
-      <c r="D82">
-        <v>-7</v>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,8 +1579,8 @@
       <c r="C83">
         <v>6299</v>
       </c>
-      <c r="D83">
-        <v>-7</v>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,8 +1635,8 @@
       <c r="C87">
         <v>6185</v>
       </c>
-      <c r="D87">
-        <v>-7</v>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,7 +1804,7 @@
         <v>11515</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,7 +1818,7 @@
         <v>11531</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,7 +1832,7 @@
         <v>11634</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,7 +1846,7 @@
         <v>11553</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,8 +1901,8 @@
       <c r="C106">
         <v>6294</v>
       </c>
-      <c r="D106">
-        <v>-7</v>
+      <c r="D106" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,7 +1916,7 @@
         <v>11847</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,7 +1930,7 @@
         <v>11813</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,7 +1944,7 @@
         <v>11852</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,7 +1958,7 @@
         <v>11816</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,7 +2028,7 @@
         <v>11612</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,7 +2042,7 @@
         <v>11909</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,8 +2055,8 @@
       <c r="C117">
         <v>11610</v>
       </c>
-      <c r="D117">
-        <v>-1</v>
+      <c r="D117" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,7 +2070,7 @@
         <v>11612</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,7 +2084,7 @@
         <v>11915</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2082,8 +2097,8 @@
       <c r="C120">
         <v>11916</v>
       </c>
-      <c r="D120">
-        <v>-5</v>
+      <c r="D120" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,7 +2112,7 @@
         <v>11601</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,7 +2126,7 @@
         <v>11812</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,7 +2140,7 @@
         <v>11866</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2154,7 @@
         <v>11823</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,7 +2168,7 @@
         <v>11809</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,7 +2224,7 @@
         <v>11684</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,7 +2266,7 @@
         <v>12450</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,7 +2392,7 @@
         <v>3463</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,7 +2420,7 @@
         <v>11609</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,7 +2434,7 @@
         <v>11848</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,7 +2490,7 @@
         <v>11815</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,7 +2588,7 @@
         <v>11685</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
+++ b/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_1\src\inputs\plan_obiegow_taboru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C84C3E-39AC-4E76-90D3-E9550D5A238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B348FB68-1EE6-4036-9233-1BA28340FA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="114">
   <si>
     <t>Nr gr. poc.</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>[2-5]</t>
+  </si>
+  <si>
+    <t>[7]+</t>
   </si>
 </sst>
 </file>
@@ -747,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,7 +4436,7 @@
         <v>6294</v>
       </c>
       <c r="D101" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F101">
         <v>3</v>

--- a/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
+++ b/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_1\src\inputs\plan_obiegow_taboru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B348FB68-1EE6-4036-9233-1BA28340FA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688DBA59-1091-413F-839D-64DC6DDFAFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,13 +371,13 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[2-5]</t>
-  </si>
-  <si>
     <t>[7]+</t>
+  </si>
+  <si>
+    <t>[2-5]-</t>
+  </si>
+  <si>
+    <t>[5]*1</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,7 +4436,7 @@
         <v>6294</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F101">
         <v>3</v>
@@ -4964,7 +4964,7 @@
         <v>11916</v>
       </c>
       <c r="D116" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>49</v>

--- a/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
+++ b/src/inputs/plan_obiegow_taboru/plan_obiegow_taboru.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Desktop\ZRJ5\v_1_0_3\src\inputs\plan_obiegow_taboru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_5\src\inputs\plan_obiegow_taboru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8148B56C-30F8-42E7-9F62-6650F4392D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A268D66-1353-41E2-9748-4292CAD6FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="104">
   <si>
     <t>Nr gr. poc.</t>
   </si>
@@ -286,13 +286,70 @@
     <t>[5]</t>
   </si>
   <si>
+    <t>67206/7</t>
+  </si>
+  <si>
+    <t>64209/8</t>
+  </si>
+  <si>
+    <t>46214/5</t>
+  </si>
+  <si>
+    <t>66229/8</t>
+  </si>
+  <si>
+    <t>64203/2</t>
+  </si>
+  <si>
+    <t>46212/3</t>
+  </si>
+  <si>
+    <t>64401/0</t>
+  </si>
+  <si>
+    <t>64213/2</t>
+  </si>
+  <si>
+    <t>46218/9</t>
+  </si>
+  <si>
+    <t>66442/3</t>
+  </si>
+  <si>
+    <t>[1-5]</t>
+  </si>
+  <si>
+    <t>60411/0</t>
+  </si>
+  <si>
+    <t>60415/4</t>
+  </si>
+  <si>
+    <t>60417/6</t>
+  </si>
+  <si>
     <t>[7]+</t>
   </si>
   <si>
-    <t>[5]*1</t>
-  </si>
-  <si>
-    <t>[2-5]*2</t>
+    <t>H*1</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>H*2</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>[1]*3</t>
+  </si>
+  <si>
+    <t>[5]*4</t>
+  </si>
+  <si>
+    <t>[2-5]-</t>
   </si>
 </sst>
 </file>
@@ -353,7 +410,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -366,6 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -374,10 +432,11 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="4" xr:uid="{909B3158-93D6-453E-9B9D-787E38991550}"/>
     <cellStyle name="Normalny 11 2" xfId="8" xr:uid="{DB78B739-D2C8-4671-884C-735C83407315}"/>
+    <cellStyle name="Normalny 11 2 2" xfId="12" xr:uid="{A9CCE554-1522-4220-AAD7-25D8BBD9D365}"/>
     <cellStyle name="Normalny 2 5" xfId="5" xr:uid="{36F8803C-0043-40CB-8377-3BBFD99B6D4B}"/>
     <cellStyle name="Normalny 7 10 4 4 2 3" xfId="10" xr:uid="{9BA9C417-1C62-4597-9096-F452E9CA6227}"/>
     <cellStyle name="Normalny 7 10 4 4 3 2" xfId="2" xr:uid="{371DE339-E6E1-4960-AEE7-B17610CFE43F}"/>
@@ -686,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,588 +787,711 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>54</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>66642</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>54</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>66380</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>66655</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>54</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>66635</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>66390</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>76950</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>66551</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>67955</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>66372</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>66380</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>67403</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>66653</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>76408</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>67413</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>76416</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>67401</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>76950</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>76406</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>66637</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>67415</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>66646</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>76418</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>67955</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>67409</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>66402</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>76412</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>66413</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>66425</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
-        <v>66406</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>66651</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
-        <v>67417</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="D25" s="1">
-        <v>76420</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>67921</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>3</v>
       </c>
-      <c r="D26" s="1">
-        <v>67403</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>76934</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="D27" s="1">
-        <v>76408</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>67929</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1">
-        <v>67415</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>76940</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>76418</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>67431</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>66425</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>76402</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>4</v>
       </c>
-      <c r="D31" s="1">
-        <v>66651</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>54</v>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="D33" s="1">
-        <v>67921</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>7</v>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>4</v>
       </c>
-      <c r="D34" s="1">
-        <v>76934</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>53</v>
+      <c r="D34">
+        <v>66367</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="D35" s="1">
-        <v>67929</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>53</v>
+      <c r="D35">
+        <v>66423</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>4</v>
       </c>
-      <c r="D36" s="1">
-        <v>76940</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>53</v>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>67401</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>53</v>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1">
-        <v>76406</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>53</v>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>67417</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>66453</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>54</v>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>76418</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="D40" s="1">
-        <v>66442</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>54</v>
+      <c r="D40">
+        <v>66462</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="D41" s="1">
-        <v>67419</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>53</v>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>5</v>
       </c>
-      <c r="D42" s="1">
-        <v>76422</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>53</v>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1">
-        <v>67433</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>55</v>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>67403</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -1319,14 +1501,14 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1">
-        <v>76404</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>55</v>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>76408</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -1336,14 +1518,14 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>6</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>67419</v>
+      </c>
+      <c r="E45" t="s">
+        <v>53</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -1353,14 +1535,14 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>76420</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -1370,14 +1552,14 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1">
-        <v>66433</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>54</v>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>66439</v>
+      </c>
+      <c r="E47" t="s">
+        <v>53</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -1387,48 +1569,48 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1">
-        <v>66466</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>54</v>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>66460</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1">
-        <v>66419</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>56</v>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>66451</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>6</v>
-      </c>
-      <c r="D50" s="1">
-        <v>66400</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>53</v>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>66440</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
       </c>
       <c r="G50" s="1">
         <v>2</v>
@@ -1438,13 +1620,13 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1">
-        <v>66451</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>66435</v>
+      </c>
+      <c r="E51" t="s">
         <v>54</v>
       </c>
       <c r="G51" s="1">
@@ -1455,13 +1637,13 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
-        <v>6</v>
-      </c>
-      <c r="D52" s="1">
-        <v>66440</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>66468</v>
+      </c>
+      <c r="E52" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="1">
@@ -1472,14 +1654,14 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
-        <v>6</v>
-      </c>
-      <c r="D53" s="1">
-        <v>67405</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>54</v>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>66437</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
       </c>
       <c r="G53" s="1">
         <v>2</v>
@@ -1489,236 +1671,269 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>6</v>
       </c>
-      <c r="D54" s="1">
-        <v>76412</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>54</v>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
       </c>
       <c r="G54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>6</v>
       </c>
-      <c r="D55" s="1">
-        <v>67409</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>7</v>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
       </c>
       <c r="G55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>6</v>
       </c>
-      <c r="D56" s="1">
-        <v>76414</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>7</v>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>53</v>
       </c>
       <c r="G56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>6</v>
       </c>
-      <c r="D57" s="1">
-        <v>66421</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
-        <v>7</v>
-      </c>
-      <c r="D58" s="1">
-        <v>67431</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>54</v>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>76920</v>
+      </c>
+      <c r="E58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
-        <v>7</v>
-      </c>
-      <c r="D59" s="1">
-        <v>76402</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>54</v>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>76952</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
-        <v>7</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="D60">
         <v>67411</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>54</v>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
-        <v>7</v>
-      </c>
-      <c r="D61" s="1">
-        <v>76416</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>54</v>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>76414</v>
+      </c>
+      <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
-        <v>7</v>
-      </c>
-      <c r="D62" s="1">
-        <v>66423</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>54</v>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>67959</v>
+      </c>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
-        <v>7</v>
-      </c>
-      <c r="D63" s="1">
-        <v>67431</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>7</v>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>67937</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
-        <v>7</v>
-      </c>
-      <c r="D64" s="1">
-        <v>76402</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>7</v>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
-        <v>7</v>
-      </c>
-      <c r="D65" s="1">
-        <v>66413</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>7</v>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>46227</v>
+      </c>
+      <c r="E65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
-        <v>7</v>
-      </c>
-      <c r="D66" s="1">
-        <v>66406</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>7</v>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>67407</v>
+      </c>
+      <c r="E66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
-        <v>7</v>
-      </c>
-      <c r="D67" s="1">
-        <v>67423</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>7</v>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>76412</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
-        <v>7</v>
-      </c>
-      <c r="D68" s="1">
-        <v>76420</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>7</v>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>8</v>
       </c>
-      <c r="D69" s="1">
-        <v>76920</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>54</v>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -1728,14 +1943,14 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
-        <v>8</v>
-      </c>
-      <c r="D70" s="1">
-        <v>76952</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>7</v>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>76400</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -1745,13 +1960,13 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>66453</v>
+      </c>
+      <c r="E71" t="s">
         <v>54</v>
       </c>
       <c r="G71" s="1">
@@ -1762,13 +1977,13 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
-        <v>8</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
         <v>54</v>
       </c>
       <c r="G72" s="1">
@@ -1779,14 +1994,14 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="1">
-        <v>66365</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>54</v>
+      <c r="E73" t="s">
+        <v>92</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -1796,14 +2011,14 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1">
-        <v>66439</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>53</v>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>66419</v>
+      </c>
+      <c r="E74" t="s">
+        <v>96</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -1813,14 +2028,14 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
-        <v>8</v>
-      </c>
-      <c r="D75" s="1">
-        <v>66460</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>53</v>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>67433</v>
+      </c>
+      <c r="E75" t="s">
+        <v>55</v>
       </c>
       <c r="G75" s="1">
         <v>2</v>
@@ -1830,14 +2045,14 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
-        <v>8</v>
-      </c>
-      <c r="D76" s="1">
-        <v>66431</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>54</v>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>76404</v>
+      </c>
+      <c r="E76" t="s">
+        <v>53</v>
       </c>
       <c r="G76" s="1">
         <v>2</v>
@@ -1847,14 +2062,14 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
-        <v>8</v>
-      </c>
-      <c r="D77" s="1">
-        <v>66464</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>54</v>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>67405</v>
+      </c>
+      <c r="E77" t="s">
+        <v>53</v>
       </c>
       <c r="G77" s="1">
         <v>2</v>
@@ -1864,13 +2079,13 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
-        <v>8</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>76410</v>
+      </c>
+      <c r="E78" t="s">
         <v>54</v>
       </c>
       <c r="G78" s="1">
@@ -1881,14 +2096,14 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
-        <v>8</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>54</v>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>76410</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
       </c>
       <c r="G79" s="1">
         <v>2</v>
@@ -1898,14 +2113,14 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
-        <v>8</v>
-      </c>
-      <c r="D80" s="1">
-        <v>66362</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>54</v>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>67421</v>
+      </c>
+      <c r="E80" t="s">
+        <v>53</v>
       </c>
       <c r="G80" s="1">
         <v>2</v>
@@ -1915,708 +2130,768 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <v>8</v>
-      </c>
-      <c r="D81" s="1">
-        <v>66367</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>54</v>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
       </c>
       <c r="G81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1">
-        <v>67411</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>78</v>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" t="s">
+        <v>54</v>
       </c>
       <c r="G82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
-        <v>8</v>
-      </c>
-      <c r="D83" s="1">
-        <v>76416</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>78</v>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>54</v>
       </c>
       <c r="G83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
-        <v>8</v>
-      </c>
-      <c r="D84" s="1">
-        <v>67957</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
         <v>54</v>
       </c>
       <c r="G84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
-        <v>8</v>
-      </c>
-      <c r="D85" s="1">
-        <v>67937</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>7</v>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>53</v>
       </c>
       <c r="G85" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
-        <v>9</v>
-      </c>
-      <c r="D86" s="1">
-        <v>76400</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>55</v>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" t="s">
+        <v>54</v>
       </c>
       <c r="G86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
-        <v>9</v>
-      </c>
-      <c r="D87" s="1">
-        <v>76404</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>78</v>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" t="s">
+        <v>54</v>
       </c>
       <c r="G87" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
-        <v>9</v>
-      </c>
-      <c r="D88" s="1">
-        <v>67405</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>7</v>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>67505</v>
+      </c>
+      <c r="E88" t="s">
+        <v>53</v>
       </c>
       <c r="G88" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
-        <v>9</v>
-      </c>
-      <c r="D89" s="1">
-        <v>76410</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>7</v>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" t="s">
+        <v>97</v>
       </c>
       <c r="G89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
-        <v>9</v>
-      </c>
-      <c r="D90" s="1">
-        <v>67421</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>7</v>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" t="s">
+        <v>98</v>
       </c>
       <c r="G90" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
-        <v>9</v>
-      </c>
-      <c r="D91" s="1">
-        <v>66435</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s">
         <v>54</v>
       </c>
       <c r="G91" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
-        <v>9</v>
-      </c>
-      <c r="D92" s="1">
-        <v>66468</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" t="s">
         <v>54</v>
       </c>
       <c r="G92" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
-        <v>9</v>
-      </c>
-      <c r="D93" s="1">
-        <v>66437</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>54</v>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>53</v>
       </c>
       <c r="G93" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
-        <v>9</v>
-      </c>
-      <c r="D94" s="1">
-        <v>66462</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>55</v>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>76516</v>
+      </c>
+      <c r="E94" t="s">
+        <v>53</v>
       </c>
       <c r="G94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="1">
-        <v>9</v>
-      </c>
-      <c r="D95" s="1">
-        <v>66411</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>53</v>
+      <c r="B95">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E95" t="s">
+        <v>54</v>
       </c>
       <c r="G95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="1">
-        <v>9</v>
-      </c>
-      <c r="D96" s="1">
-        <v>66404</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>53</v>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s">
+        <v>54</v>
       </c>
       <c r="G96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="1">
-        <v>9</v>
-      </c>
-      <c r="D97" s="1">
-        <v>67413</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>54</v>
+      <c r="B97">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
       </c>
       <c r="G97" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="1">
-        <v>9</v>
-      </c>
-      <c r="D98" s="1">
-        <v>76418</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>54</v>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
       </c>
       <c r="G98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
-        <v>9</v>
-      </c>
-      <c r="D99" s="1">
-        <v>64400</v>
-      </c>
-      <c r="E99" s="1" t="s">
+      <c r="B99">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" t="s">
         <v>53</v>
       </c>
       <c r="G99" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="1">
-        <v>9</v>
-      </c>
-      <c r="D100" s="1">
-        <v>46231</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>53</v>
+      <c r="B100">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
       </c>
       <c r="G100" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="1">
-        <v>9</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>7</v>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
+        <v>100</v>
       </c>
       <c r="G101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="1">
-        <v>9</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>7</v>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" t="s">
+        <v>53</v>
       </c>
       <c r="G102" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="1">
-        <v>9</v>
-      </c>
-      <c r="D103" s="1">
-        <v>67407</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>54</v>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" t="s">
+        <v>53</v>
       </c>
       <c r="G103" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="1">
-        <v>9</v>
-      </c>
-      <c r="D104" s="1">
-        <v>76414</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>54</v>
+      <c r="B104">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" t="s">
+        <v>53</v>
       </c>
       <c r="G104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="1">
-        <v>9</v>
-      </c>
-      <c r="D105" s="1">
-        <v>67421</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>54</v>
+      <c r="B105">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" t="s">
+        <v>53</v>
       </c>
       <c r="G105" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="1">
-        <v>9</v>
-      </c>
-      <c r="D106" s="1">
-        <v>66437</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>82</v>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" t="s">
+        <v>53</v>
       </c>
       <c r="G106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="1">
-        <v>10</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>53</v>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>53</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="1">
-        <v>10</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>53</v>
+      <c r="B108">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1">
+        <v>9941</v>
+      </c>
+      <c r="D108">
+        <v>64540</v>
+      </c>
+      <c r="E108" t="s">
+        <v>54</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="1">
-        <v>10</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>53</v>
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
+        <v>54</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="1">
-        <v>10</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>53</v>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="1">
-        <v>11</v>
-      </c>
-      <c r="D111" s="1">
-        <v>64540</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>54</v>
+      <c r="B111">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>102</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
-        <v>11</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>54</v>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5543</v>
+      </c>
+      <c r="D112">
+        <v>64540</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
-        <v>11</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="B113">
         <v>12</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>54</v>
+      <c r="D113" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="1">
-        <v>46553</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>54</v>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
-        <v>11</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>7</v>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>46551</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
-        <v>11</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>7</v>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" t="s">
+        <v>101</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>12</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>79</v>
+      <c r="D117" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" t="s">
+        <v>103</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>12</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>84</v>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>12</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>57</v>
+      <c r="D119">
+        <v>46553</v>
+      </c>
+      <c r="E119" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>12</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>83</v>
+      <c r="D120" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>12</v>
       </c>
-      <c r="D121" s="1">
-        <v>64540</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>7</v>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="1">
-        <v>12</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>7</v>
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>66481</v>
+      </c>
+      <c r="E122" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="1">
-        <v>12</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>7</v>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="1">
-        <v>12</v>
-      </c>
-      <c r="D124" s="1">
-        <v>46551</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>7</v>
+      <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" t="s">
+        <v>54</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
         <v>13</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>7</v>
+      <c r="D125" t="s">
+        <v>93</v>
+      </c>
+      <c r="E125" t="s">
+        <v>54</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -2626,13 +2901,13 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
         <v>13</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E126" s="1" t="s">
+      <c r="D126">
+        <v>66483</v>
+      </c>
+      <c r="E126" t="s">
         <v>54</v>
       </c>
       <c r="G126" s="1">
@@ -2643,13 +2918,13 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
         <v>13</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="1" t="s">
+      <c r="D127" t="s">
+        <v>94</v>
+      </c>
+      <c r="E127" t="s">
         <v>54</v>
       </c>
       <c r="G127" s="1">
@@ -2660,13 +2935,13 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128">
         <v>13</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E128" s="1" t="s">
+      <c r="D128">
+        <v>66485</v>
+      </c>
+      <c r="E128" t="s">
         <v>54</v>
       </c>
       <c r="G128" s="1">
@@ -2677,516 +2952,22 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129">
         <v>13</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>53</v>
+      <c r="D129" t="s">
+        <v>95</v>
+      </c>
+      <c r="E129" t="s">
+        <v>54</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="1">
-        <v>13</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" s="1">
-        <v>13</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G131" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>131</v>
-      </c>
-      <c r="B132" s="1">
-        <v>13</v>
-      </c>
-      <c r="D132" s="1">
-        <v>67505</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G132" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="B133" s="1">
-        <v>13</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G133" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>133</v>
-      </c>
-      <c r="B134" s="1">
-        <v>13</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G134" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>134</v>
-      </c>
-      <c r="B135" s="1">
-        <v>13</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G135" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>135</v>
-      </c>
-      <c r="B136" s="1">
-        <v>13</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G136" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>136</v>
-      </c>
-      <c r="B137" s="1">
-        <v>13</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G137" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>137</v>
-      </c>
-      <c r="B138" s="1">
-        <v>13</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G138" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>138</v>
-      </c>
-      <c r="B139" s="1">
-        <v>13</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G139" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>139</v>
-      </c>
-      <c r="B140" s="1">
-        <v>13</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G140" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>140</v>
-      </c>
-      <c r="B141" s="1">
-        <v>13</v>
-      </c>
-      <c r="D141" s="1">
-        <v>76516</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G141" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>141</v>
-      </c>
-      <c r="B142" s="1">
-        <v>14</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>142</v>
-      </c>
-      <c r="B143" s="1">
-        <v>14</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>143</v>
-      </c>
-      <c r="B144" s="1">
-        <v>14</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>144</v>
-      </c>
-      <c r="B145" s="1">
-        <v>14</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>145</v>
-      </c>
-      <c r="B146" s="1">
-        <v>14</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>146</v>
-      </c>
-      <c r="B147" s="1">
-        <v>14</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G147" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>147</v>
-      </c>
-      <c r="B148" s="1">
-        <v>14</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>148</v>
-      </c>
-      <c r="B149" s="1">
-        <v>14</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>149</v>
-      </c>
-      <c r="B150" s="1">
-        <v>14</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G150" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>150</v>
-      </c>
-      <c r="B151" s="1">
-        <v>14</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G151" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>151</v>
-      </c>
-      <c r="B152" s="1">
-        <v>14</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G152" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>152</v>
-      </c>
-      <c r="B153" s="1">
-        <v>14</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G153" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>153</v>
-      </c>
-      <c r="B154" s="1">
-        <v>14</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G154" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>154</v>
-      </c>
-      <c r="B155" s="1">
-        <v>14</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G155" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>155</v>
-      </c>
-      <c r="B156" s="1">
-        <v>15</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>156</v>
-      </c>
-      <c r="B157" s="1">
-        <v>15</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158"/>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159"/>
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160"/>
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-    </row>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
